--- a/SPR-EEC-PnP-NEX-pcie.xlsx
+++ b/SPR-EEC-PnP-NEX-pcie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_learning\PNPtest\xytest\xysh\PNP_PCIE\SPR-R-EEC-SWS-PnP_pcie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0681FB79-8A80-4A92-94A7-2316975BF022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BEA6C7-942F-4FF7-9ADF-E89E579CDB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="480" windowWidth="23016" windowHeight="12024" tabRatio="681" activeTab="5" xr2:uid="{1374E02E-E30E-4B66-AA2F-7D5B631E4011}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="233">
   <si>
     <t>Comments</t>
   </si>
@@ -1133,7 +1133,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1385,14 +1385,11 @@
     <xf numFmtId="9" fontId="9" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1412,14 +1409,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1433,6 +1427,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1444,15 +1444,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1472,14 +1463,23 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1488,6 +1488,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1931,38 +1934,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94" t="s">
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2000,7 +2003,7 @@
       <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="95"/>
+      <c r="L3" s="94"/>
     </row>
     <row r="4" spans="1:12" ht="19.95" customHeight="1" thickBot="1">
       <c r="A4" s="57">
@@ -2366,7 +2369,7 @@
       <c r="A14" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="99"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="32">
         <v>0</v>
       </c>
@@ -2397,21 +2400,21 @@
       <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="89">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="95">
         <v>6344</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89">
+      <c r="G15" s="95"/>
+      <c r="H15" s="95">
         <v>6048</v>
       </c>
-      <c r="I15" s="89"/>
+      <c r="I15" s="95"/>
       <c r="J15" s="28" t="s">
         <v>7</v>
       </c>
@@ -2421,38 +2424,38 @@
       <c r="L15" s="28"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
       <c r="F18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="94" t="s">
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2490,7 +2493,7 @@
       <c r="K19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="95"/>
+      <c r="L19" s="94"/>
     </row>
     <row r="20" spans="1:12" ht="19.95" customHeight="1" thickBot="1">
       <c r="A20" s="26">
@@ -2887,21 +2890,21 @@
       <c r="L30" s="28"/>
     </row>
     <row r="31" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89">
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="95">
         <v>3916</v>
       </c>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89">
+      <c r="G31" s="95"/>
+      <c r="H31" s="95">
         <v>3584</v>
       </c>
-      <c r="I31" s="89"/>
+      <c r="I31" s="95"/>
       <c r="J31" s="28" t="s">
         <v>7</v>
       </c>
@@ -2956,6 +2959,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G2:K2"/>
@@ -2965,13 +2975,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3006,38 +3009,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94" t="s">
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3075,7 +3078,7 @@
       <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="95"/>
+      <c r="L3" s="94"/>
     </row>
     <row r="4" spans="1:12" ht="19.95" customHeight="1" thickBot="1">
       <c r="A4" s="26">
@@ -3472,13 +3475,13 @@
       <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
       <c r="F15" s="104">
         <v>5194</v>
       </c>
@@ -3498,38 +3501,38 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
       <c r="F18" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="94" t="s">
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3567,7 +3570,7 @@
       <c r="K19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="95"/>
+      <c r="L19" s="94"/>
     </row>
     <row r="20" spans="1:12" ht="19.95" customHeight="1" thickBot="1">
       <c r="A20" s="26">
@@ -3934,7 +3937,7 @@
       <c r="L29" s="37"/>
     </row>
     <row r="30" spans="1:12" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="101" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="106"/>
@@ -3968,13 +3971,13 @@
       <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
       <c r="F31" s="103">
         <v>4667</v>
       </c>
@@ -4157,21 +4160,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" ht="32.4">
       <c r="A2" s="3" t="s">
@@ -4215,7 +4218,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="113" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4256,7 +4259,7 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1">
-      <c r="A4" s="109"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -4295,7 +4298,7 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1">
-      <c r="A5" s="109"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
@@ -4337,7 +4340,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="113" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4374,7 +4377,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1">
-      <c r="A7" s="109"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
@@ -4409,7 +4412,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1">
-      <c r="A8" s="109"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
@@ -4444,7 +4447,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="113" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -4481,7 +4484,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1">
-      <c r="A10" s="109"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4516,7 +4519,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1">
-      <c r="A11" s="109"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
@@ -4551,7 +4554,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="113" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4588,7 +4591,7 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1">
-      <c r="A13" s="109"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
@@ -4623,7 +4626,7 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="109"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -4658,7 +4661,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="113" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -4691,7 +4694,7 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="A16" s="109"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
@@ -4722,7 +4725,7 @@
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1">
-      <c r="A17" s="109"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
@@ -4753,7 +4756,7 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="113" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -4786,7 +4789,7 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1">
-      <c r="A19" s="109"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
@@ -4817,7 +4820,7 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1">
-      <c r="A20" s="109"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
@@ -4848,7 +4851,7 @@
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1">
-      <c r="A21" s="109" t="s">
+      <c r="A21" s="113" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4881,7 +4884,7 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1">
-      <c r="A22" s="109"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
@@ -4912,7 +4915,7 @@
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1">
-      <c r="A23" s="109"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
@@ -4943,7 +4946,7 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="113" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4976,7 +4979,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1">
-      <c r="A25" s="109"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
@@ -5007,7 +5010,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1">
-      <c r="A26" s="109"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
@@ -5038,7 +5041,7 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1">
-      <c r="A27" s="109" t="s">
+      <c r="A27" s="113" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5071,7 +5074,7 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1">
-      <c r="A28" s="109"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
@@ -5102,7 +5105,7 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1">
-      <c r="A29" s="109"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
@@ -5133,7 +5136,7 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="113" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -5166,7 +5169,7 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1">
-      <c r="A31" s="109"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="4" t="s">
         <v>31</v>
       </c>
@@ -5197,7 +5200,7 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1">
-      <c r="A32" s="109"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="4" t="s">
         <v>32</v>
       </c>
@@ -5228,7 +5231,7 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="114" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -5261,7 +5264,7 @@
       <c r="M33" s="14"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1">
-      <c r="A34" s="107"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
@@ -5292,7 +5295,7 @@
       <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1">
-      <c r="A35" s="107"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="4" t="s">
         <v>32</v>
       </c>
@@ -5323,7 +5326,7 @@
       <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="107" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -5356,7 +5359,7 @@
       <c r="M36" s="15"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1">
-      <c r="A37" s="111"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
@@ -5387,7 +5390,7 @@
       <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1">
-      <c r="A38" s="112"/>
+      <c r="A38" s="109"/>
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
@@ -5418,7 +5421,7 @@
       <c r="M38" s="14"/>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="107" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -5451,7 +5454,7 @@
       <c r="M39" s="14"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1">
-      <c r="A40" s="111"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="4" t="s">
         <v>31</v>
       </c>
@@ -5482,7 +5485,7 @@
       <c r="M40" s="14"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1">
-      <c r="A41" s="112"/>
+      <c r="A41" s="109"/>
       <c r="B41" s="4" t="s">
         <v>32</v>
       </c>
@@ -5513,7 +5516,7 @@
       <c r="M41" s="14"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1">
-      <c r="A42" s="113" t="s">
+      <c r="A42" s="110" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -5546,7 +5549,7 @@
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" ht="18" customHeight="1">
-      <c r="A43" s="114"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
@@ -5577,7 +5580,7 @@
       <c r="M43" s="8"/>
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1">
-      <c r="A44" s="115"/>
+      <c r="A44" s="112"/>
       <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
@@ -5608,7 +5611,7 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:13" ht="18" customHeight="1">
-      <c r="A45" s="113" t="s">
+      <c r="A45" s="110" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -5641,7 +5644,7 @@
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:13" ht="18" customHeight="1">
-      <c r="A46" s="114"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="4" t="s">
         <v>31</v>
       </c>
@@ -5672,7 +5675,7 @@
       <c r="M46" s="8"/>
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1">
-      <c r="A47" s="115"/>
+      <c r="A47" s="112"/>
       <c r="B47" s="4" t="s">
         <v>32</v>
       </c>
@@ -5703,7 +5706,7 @@
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="1:13" ht="18" customHeight="1">
-      <c r="A48" s="109" t="s">
+      <c r="A48" s="113" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -5736,7 +5739,7 @@
       <c r="M48" s="8"/>
     </row>
     <row r="49" spans="1:13" ht="18" customHeight="1">
-      <c r="A49" s="109"/>
+      <c r="A49" s="113"/>
       <c r="B49" s="4" t="s">
         <v>31</v>
       </c>
@@ -5767,7 +5770,7 @@
       <c r="M49" s="8"/>
     </row>
     <row r="50" spans="1:13" ht="18" customHeight="1">
-      <c r="A50" s="109"/>
+      <c r="A50" s="113"/>
       <c r="B50" s="4" t="s">
         <v>32</v>
       </c>
@@ -5799,11 +5802,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A5"/>
@@ -5816,6 +5814,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5850,21 +5853,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" ht="48.6">
       <c r="A2" s="3" t="s">
@@ -5908,7 +5911,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="113" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5949,7 +5952,7 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1">
-      <c r="A4" s="109"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -5988,7 +5991,7 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1">
-      <c r="A5" s="109"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
@@ -6030,7 +6033,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="113" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -6067,7 +6070,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1">
-      <c r="A7" s="109"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
@@ -6102,7 +6105,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1">
-      <c r="A8" s="109"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
@@ -6137,7 +6140,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="113" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -6174,7 +6177,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1">
-      <c r="A10" s="109"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6209,7 +6212,7 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1">
-      <c r="A11" s="109"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
@@ -6244,7 +6247,7 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="113" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -6281,7 +6284,7 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1">
-      <c r="A13" s="109"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
@@ -6316,7 +6319,7 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="109"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6351,7 +6354,7 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="113" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6384,7 +6387,7 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="A16" s="109"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
@@ -6415,7 +6418,7 @@
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1">
-      <c r="A17" s="109"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
@@ -6446,7 +6449,7 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="113" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -6479,7 +6482,7 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1">
-      <c r="A19" s="109"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
@@ -6510,7 +6513,7 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1">
-      <c r="A20" s="109"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
@@ -6541,7 +6544,7 @@
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1">
-      <c r="A21" s="109" t="s">
+      <c r="A21" s="113" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -6574,7 +6577,7 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1">
-      <c r="A22" s="109"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
@@ -6605,7 +6608,7 @@
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1">
-      <c r="A23" s="109"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
@@ -6636,7 +6639,7 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="113" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -6669,7 +6672,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1">
-      <c r="A25" s="109"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
@@ -6700,7 +6703,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1">
-      <c r="A26" s="109"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
@@ -6731,7 +6734,7 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1">
-      <c r="A27" s="109" t="s">
+      <c r="A27" s="113" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -6764,7 +6767,7 @@
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1">
-      <c r="A28" s="109"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
@@ -6795,7 +6798,7 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1">
-      <c r="A29" s="109"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
@@ -6826,7 +6829,7 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="113" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -6859,7 +6862,7 @@
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1">
-      <c r="A31" s="109"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="4" t="s">
         <v>31</v>
       </c>
@@ -6890,7 +6893,7 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1">
-      <c r="A32" s="109"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="4" t="s">
         <v>32</v>
       </c>
@@ -6921,7 +6924,7 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="114" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -6954,7 +6957,7 @@
       <c r="M33" s="14"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1">
-      <c r="A34" s="107"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
@@ -6985,7 +6988,7 @@
       <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1">
-      <c r="A35" s="107"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="4" t="s">
         <v>32</v>
       </c>
@@ -7016,7 +7019,7 @@
       <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="107" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -7049,7 +7052,7 @@
       <c r="M36" s="15"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1">
-      <c r="A37" s="111"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
@@ -7080,7 +7083,7 @@
       <c r="M37" s="14"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1">
-      <c r="A38" s="112"/>
+      <c r="A38" s="109"/>
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
@@ -7111,7 +7114,7 @@
       <c r="M38" s="14"/>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="107" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -7144,7 +7147,7 @@
       <c r="M39" s="14"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1">
-      <c r="A40" s="111"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="4" t="s">
         <v>31</v>
       </c>
@@ -7175,7 +7178,7 @@
       <c r="M40" s="14"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1">
-      <c r="A41" s="112"/>
+      <c r="A41" s="109"/>
       <c r="B41" s="4" t="s">
         <v>32</v>
       </c>
@@ -7206,7 +7209,7 @@
       <c r="M41" s="14"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1">
-      <c r="A42" s="113" t="s">
+      <c r="A42" s="110" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -7239,7 +7242,7 @@
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13" ht="18" customHeight="1">
-      <c r="A43" s="114"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
@@ -7270,7 +7273,7 @@
       <c r="M43" s="8"/>
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1">
-      <c r="A44" s="115"/>
+      <c r="A44" s="112"/>
       <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
@@ -7301,7 +7304,7 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:13" ht="18" customHeight="1">
-      <c r="A45" s="113" t="s">
+      <c r="A45" s="110" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -7334,7 +7337,7 @@
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:13" ht="18" customHeight="1">
-      <c r="A46" s="114"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="4" t="s">
         <v>31</v>
       </c>
@@ -7365,7 +7368,7 @@
       <c r="M46" s="8"/>
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1">
-      <c r="A47" s="115"/>
+      <c r="A47" s="112"/>
       <c r="B47" s="4" t="s">
         <v>32</v>
       </c>
@@ -7396,7 +7399,7 @@
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="1:13" ht="18" customHeight="1">
-      <c r="A48" s="109" t="s">
+      <c r="A48" s="113" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -7429,7 +7432,7 @@
       <c r="M48" s="8"/>
     </row>
     <row r="49" spans="1:13" ht="18" customHeight="1">
-      <c r="A49" s="109"/>
+      <c r="A49" s="113"/>
       <c r="B49" s="4" t="s">
         <v>31</v>
       </c>
@@ -7460,7 +7463,7 @@
       <c r="M49" s="8"/>
     </row>
     <row r="50" spans="1:13" ht="18" customHeight="1">
-      <c r="A50" s="109"/>
+      <c r="A50" s="113"/>
       <c r="B50" s="4" t="s">
         <v>32</v>
       </c>
@@ -7492,11 +7495,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A5"/>
@@ -7509,6 +7507,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7538,18 +7541,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:11" ht="32.4">
       <c r="A2" s="1" t="s">
@@ -7584,10 +7587,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="38" t="s">
@@ -7618,8 +7621,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="44" t="s">
         <v>55</v>
       </c>
@@ -7644,10 +7647,10 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="44" t="s">
@@ -7674,8 +7677,8 @@
       <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="44" t="s">
         <v>55</v>
       </c>
@@ -7704,10 +7707,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -7735,8 +7738,8 @@
       <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="44" t="s">
         <v>55</v>
       </c>
@@ -7765,10 +7768,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -7799,8 +7802,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="44" t="s">
         <v>55</v>
       </c>
@@ -7825,10 +7828,10 @@
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="44" t="s">
@@ -7855,8 +7858,8 @@
       <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A12" s="117"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="38" t="s">
         <v>55</v>
       </c>
@@ -7885,10 +7888,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="117" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="44" t="s">
@@ -7916,8 +7919,8 @@
       <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A14" s="117"/>
-      <c r="B14" s="117"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="44" t="s">
         <v>55</v>
       </c>
@@ -7946,10 +7949,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="44" t="s">
@@ -7980,8 +7983,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="44" t="s">
         <v>55</v>
       </c>
@@ -8006,10 +8009,10 @@
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="44" t="s">
@@ -8036,8 +8039,8 @@
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A18" s="117"/>
-      <c r="B18" s="117"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="118"/>
       <c r="C18" s="44" t="s">
         <v>55</v>
       </c>
@@ -8066,10 +8069,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="44" t="s">
@@ -8100,8 +8103,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A20" s="117"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="44" t="s">
         <v>55</v>
       </c>
@@ -8127,10 +8130,10 @@
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="44" t="s">
@@ -8161,8 +8164,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A22" s="117"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="118"/>
       <c r="C22" s="44" t="s">
         <v>55</v>
       </c>
@@ -8187,10 +8190,10 @@
       <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="44" t="s">
@@ -8217,8 +8220,8 @@
       <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A24" s="117"/>
-      <c r="B24" s="117"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="44" t="s">
         <v>55</v>
       </c>
@@ -8247,10 +8250,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="44" t="s">
@@ -8281,8 +8284,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A26" s="117"/>
-      <c r="B26" s="117"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="44" t="s">
         <v>55</v>
       </c>
@@ -8308,10 +8311,10 @@
       <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -8342,8 +8345,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A28" s="117"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="118"/>
       <c r="C28" s="44" t="s">
         <v>55</v>
       </c>
@@ -8368,10 +8371,10 @@
       <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="44" t="s">
@@ -8398,8 +8401,8 @@
       <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A30" s="117"/>
-      <c r="B30" s="117"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="44" t="s">
         <v>55</v>
       </c>
@@ -8428,10 +8431,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="44" t="s">
@@ -8462,8 +8465,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A32" s="117"/>
-      <c r="B32" s="117"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="44" t="s">
         <v>55</v>
       </c>
@@ -8489,21 +8492,37 @@
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" ht="45.45" customHeight="1">
-      <c r="A33" s="118" t="s">
+      <c r="A33" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
@@ -8520,22 +8539,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8546,8 +8549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294EBA70-050E-4CD9-855E-4FD14EB32723}">
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67:H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2"/>
@@ -8566,18 +8569,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
     </row>
     <row r="2" spans="1:10" s="20" customFormat="1" ht="48.6">
       <c r="A2" s="1" t="s">
@@ -8612,10 +8615,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="38" t="s">
@@ -8633,20 +8636,20 @@
       <c r="G3" s="62">
         <v>58614.62</v>
       </c>
-      <c r="H3" s="21">
-        <v>59033.38</v>
-      </c>
-      <c r="I3" s="22">
+      <c r="H3" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="22" t="e">
         <f t="shared" ref="I3:I31" si="0">E3/H3</f>
-        <v>0.99176415106165372</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="44" t="s">
         <v>55</v>
       </c>
@@ -8662,17 +8665,19 @@
       <c r="G4" s="65">
         <v>0</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I4" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="44" t="s">
@@ -8690,15 +8695,17 @@
       <c r="G5" s="65">
         <v>0</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I5" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="44" t="s">
         <v>55</v>
       </c>
@@ -8714,22 +8721,22 @@
       <c r="G6" s="62">
         <v>57991</v>
       </c>
-      <c r="H6" s="21">
-        <v>58520.93</v>
-      </c>
-      <c r="I6" s="22">
+      <c r="H6" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>0.99260896913292396</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="117" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -8747,20 +8754,20 @@
       <c r="G7" s="62">
         <v>42446.92</v>
       </c>
-      <c r="H7" s="38">
-        <v>55265.120000000003</v>
-      </c>
-      <c r="I7" s="85">
+      <c r="H7" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="85" t="e">
         <f>E7/H7</f>
-        <v>0.76588397890025384</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="44" t="s">
         <v>55</v>
       </c>
@@ -8776,20 +8783,20 @@
       <c r="G8" s="65">
         <v>42446.92</v>
       </c>
-      <c r="H8" s="44">
-        <v>55265.120000000003</v>
-      </c>
-      <c r="I8" s="85">
+      <c r="H8" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="85" t="e">
         <f t="shared" si="0"/>
-        <v>0.76588397890025384</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -8807,20 +8814,20 @@
       <c r="G9" s="62">
         <v>56124.52</v>
       </c>
-      <c r="H9" s="38">
-        <v>56478.62</v>
-      </c>
-      <c r="I9" s="22">
+      <c r="H9" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>0.99222803248379643</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J9" s="43" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="44" t="s">
         <v>55</v>
       </c>
@@ -8836,17 +8843,19 @@
       <c r="G10" s="65">
         <v>0</v>
       </c>
-      <c r="H10" s="44"/>
+      <c r="H10" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I10" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="44" t="s">
@@ -8864,15 +8873,17 @@
       <c r="G11" s="65">
         <v>0</v>
       </c>
-      <c r="H11" s="44"/>
+      <c r="H11" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I11" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A12" s="117"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="44" t="s">
         <v>55</v>
       </c>
@@ -8888,22 +8899,22 @@
       <c r="G12" s="62">
         <v>56761.49</v>
       </c>
-      <c r="H12" s="21">
-        <v>56814.53</v>
-      </c>
-      <c r="I12" s="22">
+      <c r="H12" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>0.99909494983061553</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J12" s="43" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="44" t="s">
@@ -8921,20 +8932,20 @@
       <c r="G13" s="62">
         <v>42305.53</v>
       </c>
-      <c r="H13" s="21">
-        <v>49709.67</v>
-      </c>
-      <c r="I13" s="86">
+      <c r="H13" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="86" t="e">
         <f>E13/H13</f>
-        <v>0.84865399428320487</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J13" s="43" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A14" s="117"/>
-      <c r="B14" s="117"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="44" t="s">
         <v>55</v>
       </c>
@@ -8950,20 +8961,20 @@
       <c r="G14" s="65">
         <v>42305.53</v>
       </c>
-      <c r="H14" s="21">
-        <v>49709.67</v>
-      </c>
-      <c r="I14" s="86">
+      <c r="H14" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="86" t="e">
         <f t="shared" si="0"/>
-        <v>0.84865399428320487</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="44" t="s">
@@ -8981,20 +8992,20 @@
       <c r="G15" s="62">
         <v>51796.73</v>
       </c>
-      <c r="H15" s="21">
-        <v>52160.800000000003</v>
-      </c>
-      <c r="I15" s="22">
+      <c r="H15" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>0.99349626539470248</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J15" s="43" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="44" t="s">
         <v>55</v>
       </c>
@@ -9010,17 +9021,19 @@
       <c r="G16" s="65">
         <v>0</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I16" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="44" t="s">
@@ -9038,15 +9051,17 @@
       <c r="G17" s="65">
         <v>0</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I17" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A18" s="117"/>
-      <c r="B18" s="117"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="118"/>
       <c r="C18" s="44" t="s">
         <v>55</v>
       </c>
@@ -9062,22 +9077,22 @@
       <c r="G18" s="62">
         <v>52378.33</v>
       </c>
-      <c r="H18" s="21">
-        <v>52320.07</v>
-      </c>
-      <c r="I18" s="22">
+      <c r="H18" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>0.99964831851333524</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J18" s="43" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="44" t="s">
@@ -9095,20 +9110,20 @@
       <c r="G19" s="62">
         <v>41490.160000000003</v>
       </c>
-      <c r="H19" s="21">
-        <v>41332.19</v>
-      </c>
-      <c r="I19" s="22">
+      <c r="H19" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="22" t="e">
         <f>E19/H19</f>
-        <v>1.0036438911173107</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A20" s="117"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="44" t="s">
         <v>55</v>
       </c>
@@ -9124,20 +9139,20 @@
       <c r="G20" s="65">
         <v>41490.160000000003</v>
       </c>
-      <c r="H20" s="21">
-        <v>41332.19</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="H20" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="22" t="e">
         <f>E20/H20</f>
-        <v>1.0036438911173107</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="44" t="s">
@@ -9155,20 +9170,20 @@
       <c r="G21" s="62">
         <v>44016.35</v>
       </c>
-      <c r="H21" s="21">
-        <v>44345.7</v>
-      </c>
-      <c r="I21" s="22">
+      <c r="H21" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>0.99380774235156966</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J21" s="43" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A22" s="117"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="118"/>
       <c r="C22" s="44" t="s">
         <v>55</v>
       </c>
@@ -9184,17 +9199,19 @@
       <c r="G22" s="65">
         <v>0</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I22" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J22" s="43"/>
     </row>
     <row r="23" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="44" t="s">
@@ -9212,15 +9229,17 @@
       <c r="G23" s="65">
         <v>0</v>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I23" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A24" s="117"/>
-      <c r="B24" s="117"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="44" t="s">
         <v>55</v>
       </c>
@@ -9236,22 +9255,22 @@
       <c r="G24" s="62">
         <v>45180.7</v>
       </c>
-      <c r="H24" s="21">
-        <v>45195.13</v>
-      </c>
-      <c r="I24" s="22">
+      <c r="H24" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>1.0009746625355431</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J24" s="43" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="44" t="s">
@@ -9269,20 +9288,20 @@
       <c r="G25" s="62">
         <v>30989.03</v>
       </c>
-      <c r="H25" s="21">
-        <v>30902.84</v>
-      </c>
-      <c r="I25" s="22">
+      <c r="H25" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>1.0030780342518681</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J25" s="43" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A26" s="117"/>
-      <c r="B26" s="117"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="44" t="s">
         <v>55</v>
       </c>
@@ -9298,20 +9317,20 @@
       <c r="G26" s="65">
         <v>30989.03</v>
       </c>
-      <c r="H26" s="21">
-        <v>30902.84</v>
-      </c>
-      <c r="I26" s="22">
+      <c r="H26" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="22" t="e">
         <f>E26/H26</f>
-        <v>1.0030780342518681</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -9329,20 +9348,20 @@
       <c r="G27" s="62">
         <v>27265.63</v>
       </c>
-      <c r="H27" s="21">
-        <v>25190.14</v>
-      </c>
-      <c r="I27" s="22">
+      <c r="H27" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>1.0886549260940988</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J27" s="43" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A28" s="117"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="118"/>
       <c r="C28" s="44" t="s">
         <v>55</v>
       </c>
@@ -9358,17 +9377,19 @@
       <c r="G28" s="65">
         <v>0</v>
       </c>
-      <c r="H28" s="21"/>
+      <c r="H28" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I28" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="117" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="44" t="s">
@@ -9386,15 +9407,17 @@
       <c r="G29" s="65">
         <v>0</v>
       </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I29" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A30" s="117"/>
-      <c r="B30" s="117"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="44" t="s">
         <v>55</v>
       </c>
@@ -9410,22 +9433,22 @@
       <c r="G30" s="62">
         <v>31174.57</v>
       </c>
-      <c r="H30" s="21">
-        <v>31097.69</v>
-      </c>
-      <c r="I30" s="22">
+      <c r="H30" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>1.0026506791983585</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J30" s="43" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="44" t="s">
@@ -9443,20 +9466,20 @@
       <c r="G31" s="62">
         <v>15598.43</v>
       </c>
-      <c r="H31" s="21">
-        <v>15543.03</v>
-      </c>
-      <c r="I31" s="22">
+      <c r="H31" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>1.0036234891137699</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J31" s="43" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A32" s="117"/>
-      <c r="B32" s="117"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="44" t="s">
         <v>55</v>
       </c>
@@ -9472,20 +9495,20 @@
       <c r="G32" s="65">
         <v>15598.43</v>
       </c>
-      <c r="H32" s="21">
-        <v>15543.03</v>
-      </c>
-      <c r="I32" s="22">
+      <c r="H32" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="22" t="e">
         <f>E32/H32</f>
-        <v>1.0036234891137699</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J32" s="43"/>
     </row>
     <row r="33" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="44" t="s">
@@ -9503,15 +9526,17 @@
       <c r="G33" s="62">
         <v>58020.12</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I33" s="56"/>
       <c r="J33" s="82" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A34" s="117"/>
-      <c r="B34" s="117"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="118"/>
       <c r="C34" s="44" t="s">
         <v>55</v>
       </c>
@@ -9527,15 +9552,17 @@
       <c r="G34" s="65">
         <v>0</v>
       </c>
-      <c r="H34" s="21"/>
+      <c r="H34" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I34" s="84"/>
       <c r="J34" s="82"/>
     </row>
     <row r="35" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A35" s="116" t="s">
+      <c r="A35" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="44" t="s">
@@ -9553,13 +9580,15 @@
       <c r="G35" s="65">
         <v>0</v>
       </c>
-      <c r="H35" s="21"/>
+      <c r="H35" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I35" s="84"/>
       <c r="J35" s="82"/>
     </row>
     <row r="36" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A36" s="117"/>
-      <c r="B36" s="117"/>
+      <c r="A36" s="118"/>
+      <c r="B36" s="118"/>
       <c r="C36" s="44" t="s">
         <v>55</v>
       </c>
@@ -9575,17 +9604,19 @@
       <c r="G36" s="62">
         <v>55558.23</v>
       </c>
-      <c r="H36" s="21"/>
+      <c r="H36" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I36" s="84"/>
       <c r="J36" s="82" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A37" s="116" t="s">
+      <c r="A37" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="44" t="s">
@@ -9603,15 +9634,17 @@
       <c r="G37" s="62">
         <v>29470.38</v>
       </c>
-      <c r="H37" s="21"/>
+      <c r="H37" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I37" s="84"/>
       <c r="J37" s="82" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A38" s="117"/>
-      <c r="B38" s="117"/>
+      <c r="A38" s="118"/>
+      <c r="B38" s="118"/>
       <c r="C38" s="44" t="s">
         <v>55</v>
       </c>
@@ -9627,15 +9660,17 @@
       <c r="G38" s="65">
         <v>29470.38</v>
       </c>
-      <c r="H38" s="21"/>
+      <c r="H38" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I38" s="84"/>
       <c r="J38" s="82"/>
     </row>
     <row r="39" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A39" s="116" t="s">
+      <c r="A39" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="44" t="s">
@@ -9653,15 +9688,17 @@
       <c r="G39" s="62">
         <v>55428.74</v>
       </c>
-      <c r="H39" s="21"/>
+      <c r="H39" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I39" s="84"/>
       <c r="J39" s="82" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A40" s="117"/>
-      <c r="B40" s="117"/>
+      <c r="A40" s="118"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="44" t="s">
         <v>55</v>
       </c>
@@ -9677,15 +9714,17 @@
       <c r="G40" s="65">
         <v>0</v>
       </c>
-      <c r="H40" s="21"/>
+      <c r="H40" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I40" s="84"/>
       <c r="J40" s="82"/>
     </row>
     <row r="41" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A41" s="116" t="s">
+      <c r="A41" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="44" t="s">
@@ -9703,13 +9742,15 @@
       <c r="G41" s="65">
         <v>0</v>
       </c>
-      <c r="H41" s="21"/>
+      <c r="H41" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I41" s="84"/>
       <c r="J41" s="82"/>
     </row>
     <row r="42" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A42" s="117"/>
-      <c r="B42" s="117"/>
+      <c r="A42" s="118"/>
+      <c r="B42" s="118"/>
       <c r="C42" s="44" t="s">
         <v>55</v>
       </c>
@@ -9725,17 +9766,19 @@
       <c r="G42" s="62">
         <v>56160.81</v>
       </c>
-      <c r="H42" s="21"/>
+      <c r="H42" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I42" s="84"/>
       <c r="J42" s="82" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A43" s="116" t="s">
+      <c r="A43" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="44" t="s">
@@ -9753,15 +9796,17 @@
       <c r="G43" s="62">
         <v>29326.47</v>
       </c>
-      <c r="H43" s="38"/>
+      <c r="H43" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I43" s="84"/>
       <c r="J43" s="82" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A44" s="117"/>
-      <c r="B44" s="117"/>
+      <c r="A44" s="118"/>
+      <c r="B44" s="118"/>
       <c r="C44" s="44" t="s">
         <v>55</v>
       </c>
@@ -9777,15 +9822,17 @@
       <c r="G44" s="65">
         <v>29326.47</v>
       </c>
-      <c r="H44" s="44"/>
+      <c r="H44" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I44" s="84"/>
       <c r="J44" s="82"/>
     </row>
     <row r="45" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A45" s="116" t="s">
+      <c r="A45" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="B45" s="116" t="s">
+      <c r="B45" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="44" t="s">
@@ -9803,15 +9850,17 @@
       <c r="G45" s="62">
         <v>51203.42</v>
       </c>
-      <c r="H45" s="21"/>
+      <c r="H45" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I45" s="84"/>
       <c r="J45" s="82" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A46" s="117"/>
-      <c r="B46" s="117"/>
+      <c r="A46" s="118"/>
+      <c r="B46" s="118"/>
       <c r="C46" s="44" t="s">
         <v>55</v>
       </c>
@@ -9827,15 +9876,17 @@
       <c r="G46" s="65">
         <v>0</v>
       </c>
-      <c r="H46" s="21"/>
+      <c r="H46" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I46" s="84"/>
       <c r="J46" s="82"/>
     </row>
     <row r="47" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A47" s="116" t="s">
+      <c r="A47" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="B47" s="116" t="s">
+      <c r="B47" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="44" t="s">
@@ -9853,13 +9904,15 @@
       <c r="G47" s="65">
         <v>0</v>
       </c>
-      <c r="H47" s="21"/>
+      <c r="H47" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I47" s="84"/>
       <c r="J47" s="82"/>
     </row>
     <row r="48" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A48" s="117"/>
-      <c r="B48" s="117"/>
+      <c r="A48" s="118"/>
+      <c r="B48" s="118"/>
       <c r="C48" s="44" t="s">
         <v>55</v>
       </c>
@@ -9875,17 +9928,19 @@
       <c r="G48" s="62">
         <v>51709.95</v>
       </c>
-      <c r="H48" s="21"/>
+      <c r="H48" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I48" s="84"/>
       <c r="J48" s="82" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A49" s="116" t="s">
+      <c r="A49" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="44" t="s">
@@ -9903,15 +9958,17 @@
       <c r="G49" s="62">
         <v>29268.06</v>
       </c>
-      <c r="H49" s="38"/>
+      <c r="H49" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I49" s="84"/>
       <c r="J49" s="82" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A50" s="117"/>
-      <c r="B50" s="117"/>
+      <c r="A50" s="118"/>
+      <c r="B50" s="118"/>
       <c r="C50" s="44" t="s">
         <v>55</v>
       </c>
@@ -9927,15 +9984,17 @@
       <c r="G50" s="65">
         <v>29268.06</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I50" s="84"/>
       <c r="J50" s="82"/>
     </row>
     <row r="51" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A51" s="116" t="s">
+      <c r="A51" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="B51" s="116" t="s">
+      <c r="B51" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="44" t="s">
@@ -9953,15 +10012,17 @@
       <c r="G51" s="62">
         <v>44176.97</v>
       </c>
-      <c r="H51" s="21"/>
+      <c r="H51" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I51" s="84"/>
       <c r="J51" s="82" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A52" s="117"/>
-      <c r="B52" s="117"/>
+      <c r="A52" s="118"/>
+      <c r="B52" s="118"/>
       <c r="C52" s="44" t="s">
         <v>55</v>
       </c>
@@ -9977,15 +10038,17 @@
       <c r="G52" s="65">
         <v>0</v>
       </c>
-      <c r="H52" s="21"/>
+      <c r="H52" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I52" s="84"/>
       <c r="J52" s="82"/>
     </row>
     <row r="53" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A53" s="116" t="s">
+      <c r="A53" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="116" t="s">
+      <c r="B53" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="44" t="s">
@@ -10003,13 +10066,15 @@
       <c r="G53" s="65">
         <v>0</v>
       </c>
-      <c r="H53" s="21"/>
+      <c r="H53" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I53" s="84"/>
       <c r="J53" s="82"/>
     </row>
     <row r="54" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A54" s="117"/>
-      <c r="B54" s="117"/>
+      <c r="A54" s="118"/>
+      <c r="B54" s="118"/>
       <c r="C54" s="44" t="s">
         <v>55</v>
       </c>
@@ -10025,17 +10090,19 @@
       <c r="G54" s="62">
         <v>44720.95</v>
       </c>
-      <c r="H54" s="21"/>
+      <c r="H54" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I54" s="84"/>
       <c r="J54" s="82" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A55" s="116" t="s">
+      <c r="A55" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="116" t="s">
+      <c r="B55" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="44" t="s">
@@ -10053,15 +10120,17 @@
       <c r="G55" s="62">
         <v>30627.24</v>
       </c>
-      <c r="H55" s="38"/>
+      <c r="H55" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I55" s="84"/>
       <c r="J55" s="82" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A56" s="117"/>
-      <c r="B56" s="117"/>
+      <c r="A56" s="118"/>
+      <c r="B56" s="118"/>
       <c r="C56" s="44" t="s">
         <v>55</v>
       </c>
@@ -10077,15 +10146,17 @@
       <c r="G56" s="65">
         <v>30627.24</v>
       </c>
-      <c r="H56" s="44"/>
+      <c r="H56" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I56" s="84"/>
       <c r="J56" s="82"/>
     </row>
     <row r="57" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A57" s="116" t="s">
+      <c r="A57" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="B57" s="116" t="s">
+      <c r="B57" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C57" s="44" t="s">
@@ -10103,15 +10174,17 @@
       <c r="G57" s="62">
         <v>22815.45</v>
       </c>
-      <c r="H57" s="21"/>
+      <c r="H57" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I57" s="84"/>
       <c r="J57" s="82" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A58" s="117"/>
-      <c r="B58" s="117"/>
+      <c r="A58" s="118"/>
+      <c r="B58" s="118"/>
       <c r="C58" s="44" t="s">
         <v>55</v>
       </c>
@@ -10127,15 +10200,17 @@
       <c r="G58" s="65">
         <v>0</v>
       </c>
-      <c r="H58" s="21"/>
+      <c r="H58" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I58" s="84"/>
       <c r="J58" s="82"/>
     </row>
     <row r="59" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A59" s="116" t="s">
+      <c r="A59" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="B59" s="116" t="s">
+      <c r="B59" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C59" s="44" t="s">
@@ -10153,13 +10228,15 @@
       <c r="G59" s="65">
         <v>0</v>
       </c>
-      <c r="H59" s="21"/>
+      <c r="H59" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I59" s="84"/>
       <c r="J59" s="82"/>
     </row>
     <row r="60" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A60" s="117"/>
-      <c r="B60" s="117"/>
+      <c r="A60" s="118"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="44" t="s">
         <v>55</v>
       </c>
@@ -10175,17 +10252,19 @@
       <c r="G60" s="62">
         <v>31187.03</v>
       </c>
-      <c r="H60" s="21"/>
+      <c r="H60" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I60" s="84"/>
       <c r="J60" s="82" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A61" s="116" t="s">
+      <c r="A61" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="116" t="s">
+      <c r="B61" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C61" s="44" t="s">
@@ -10203,15 +10282,17 @@
       <c r="G61" s="62">
         <v>15596.24</v>
       </c>
-      <c r="H61" s="38"/>
+      <c r="H61" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I61" s="84"/>
       <c r="J61" s="83" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="19.95" customHeight="1">
-      <c r="A62" s="117"/>
-      <c r="B62" s="117"/>
+      <c r="A62" s="118"/>
+      <c r="B62" s="118"/>
       <c r="C62" s="44" t="s">
         <v>55</v>
       </c>
@@ -10227,7 +10308,9 @@
       <c r="G62" s="65">
         <v>15596.24</v>
       </c>
-      <c r="H62" s="44"/>
+      <c r="H62" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I62" s="84"/>
       <c r="J62" s="81"/>
     </row>
@@ -10292,10 +10375,10 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="18" customHeight="1">
-      <c r="A67" s="116" t="s">
+      <c r="A67" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="116" t="s">
+      <c r="B67" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C67" s="44" t="s">
@@ -10313,20 +10396,20 @@
       <c r="G67" s="63">
         <v>58457.919999999998</v>
       </c>
-      <c r="H67" s="21">
-        <v>59033.38</v>
-      </c>
-      <c r="I67" s="22">
+      <c r="H67" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="22" t="e">
         <f t="shared" ref="I67:I95" si="1">E67/H67</f>
-        <v>0.99285641445568595</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J67" s="43" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="18" customHeight="1">
-      <c r="A68" s="117"/>
-      <c r="B68" s="117"/>
+      <c r="A68" s="118"/>
+      <c r="B68" s="118"/>
       <c r="C68" s="44" t="s">
         <v>55</v>
       </c>
@@ -10342,17 +10425,19 @@
       <c r="G68" s="66">
         <v>0</v>
       </c>
-      <c r="H68" s="21"/>
+      <c r="H68" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I68" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J68" s="43"/>
     </row>
     <row r="69" spans="1:10" ht="18" customHeight="1">
-      <c r="A69" s="116" t="s">
+      <c r="A69" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="B69" s="116" t="s">
+      <c r="B69" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="44" t="s">
@@ -10370,15 +10455,17 @@
       <c r="G69" s="66">
         <v>0</v>
       </c>
-      <c r="H69" s="21"/>
+      <c r="H69" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I69" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J69" s="43"/>
     </row>
     <row r="70" spans="1:10" ht="18" customHeight="1">
-      <c r="A70" s="117"/>
-      <c r="B70" s="117"/>
+      <c r="A70" s="118"/>
+      <c r="B70" s="118"/>
       <c r="C70" s="44" t="s">
         <v>55</v>
       </c>
@@ -10394,22 +10481,22 @@
       <c r="G70" s="63">
         <v>58004</v>
       </c>
-      <c r="H70" s="21">
-        <v>58520.93</v>
-      </c>
-      <c r="I70" s="22">
+      <c r="H70" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>0.99212982432097374</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J70" s="43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="18" customHeight="1">
-      <c r="A71" s="116" t="s">
+      <c r="A71" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="B71" s="116" t="s">
+      <c r="B71" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="44" t="s">
@@ -10427,20 +10514,20 @@
       <c r="G71" s="63">
         <v>44074.61</v>
       </c>
-      <c r="H71" s="44">
-        <v>55265.120000000003</v>
-      </c>
-      <c r="I71" s="22">
+      <c r="H71" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="22" t="e">
         <f>E71/H71</f>
-        <v>0.79918364422261279</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J71" s="43" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="18" customHeight="1">
-      <c r="A72" s="117"/>
-      <c r="B72" s="117"/>
+      <c r="A72" s="118"/>
+      <c r="B72" s="118"/>
       <c r="C72" s="44" t="s">
         <v>55</v>
       </c>
@@ -10456,20 +10543,20 @@
       <c r="G72" s="66">
         <v>44074.61</v>
       </c>
-      <c r="H72" s="44">
-        <v>55265.120000000003</v>
-      </c>
-      <c r="I72" s="22">
+      <c r="H72" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="22" t="e">
         <f>E72/H72</f>
-        <v>0.79918364422261279</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J72" s="43"/>
     </row>
     <row r="73" spans="1:10" ht="18" customHeight="1">
-      <c r="A73" s="116" t="s">
+      <c r="A73" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="B73" s="116" t="s">
+      <c r="B73" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C73" s="44" t="s">
@@ -10487,20 +10574,20 @@
       <c r="G73" s="63">
         <v>55888.7</v>
       </c>
-      <c r="H73" s="44">
-        <v>56478.62</v>
-      </c>
-      <c r="I73" s="22">
+      <c r="H73" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>0.99381571291933113</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J73" s="43" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="18" customHeight="1">
-      <c r="A74" s="117"/>
-      <c r="B74" s="117"/>
+      <c r="A74" s="118"/>
+      <c r="B74" s="118"/>
       <c r="C74" s="44" t="s">
         <v>55</v>
       </c>
@@ -10516,17 +10603,19 @@
       <c r="G74" s="66">
         <v>0</v>
       </c>
-      <c r="H74" s="44"/>
+      <c r="H74" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I74" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J74" s="43"/>
     </row>
     <row r="75" spans="1:10" ht="18" customHeight="1">
-      <c r="A75" s="116" t="s">
+      <c r="A75" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="B75" s="116" t="s">
+      <c r="B75" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C75" s="44" t="s">
@@ -10544,15 +10633,17 @@
       <c r="G75" s="66">
         <v>0</v>
       </c>
-      <c r="H75" s="44"/>
+      <c r="H75" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I75" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J75" s="43"/>
     </row>
     <row r="76" spans="1:10" ht="18" customHeight="1">
-      <c r="A76" s="117"/>
-      <c r="B76" s="117"/>
+      <c r="A76" s="118"/>
+      <c r="B76" s="118"/>
       <c r="C76" s="44" t="s">
         <v>55</v>
       </c>
@@ -10568,22 +10659,22 @@
       <c r="G76" s="63">
         <v>56729.73</v>
       </c>
-      <c r="H76" s="21">
-        <v>56814.53</v>
-      </c>
-      <c r="I76" s="22">
+      <c r="H76" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>1.0002770418060309</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J76" s="43" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="18" customHeight="1">
-      <c r="A77" s="116" t="s">
+      <c r="A77" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="B77" s="116" t="s">
+      <c r="B77" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C77" s="44" t="s">
@@ -10601,20 +10692,20 @@
       <c r="G77" s="63">
         <v>44292.19</v>
       </c>
-      <c r="H77" s="21">
-        <v>49709.67</v>
-      </c>
-      <c r="I77" s="86">
+      <c r="H77" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="86" t="e">
         <f>E77/H77</f>
-        <v>0.89267742071110101</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J77" s="43" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="18" customHeight="1">
-      <c r="A78" s="117"/>
-      <c r="B78" s="117"/>
+      <c r="A78" s="118"/>
+      <c r="B78" s="118"/>
       <c r="C78" s="44" t="s">
         <v>55</v>
       </c>
@@ -10630,20 +10721,20 @@
       <c r="G78" s="66">
         <v>44292.19</v>
       </c>
-      <c r="H78" s="21">
-        <v>49709.67</v>
-      </c>
-      <c r="I78" s="86">
+      <c r="H78" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="86" t="e">
         <f t="shared" si="1"/>
-        <v>0.89267742071110101</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J78" s="43"/>
     </row>
     <row r="79" spans="1:10" ht="18" customHeight="1">
-      <c r="A79" s="116" t="s">
+      <c r="A79" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="B79" s="116" t="s">
+      <c r="B79" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C79" s="44" t="s">
@@ -10661,20 +10752,20 @@
       <c r="G79" s="63">
         <v>51734.2</v>
       </c>
-      <c r="H79" s="21">
-        <v>52160.800000000003</v>
-      </c>
-      <c r="I79" s="22">
+      <c r="H79" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>0.99148153402555173</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J79" s="43" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="18" customHeight="1">
-      <c r="A80" s="117"/>
-      <c r="B80" s="117"/>
+      <c r="A80" s="118"/>
+      <c r="B80" s="118"/>
       <c r="C80" s="44" t="s">
         <v>55</v>
       </c>
@@ -10690,17 +10781,19 @@
       <c r="G80" s="66">
         <v>0</v>
       </c>
-      <c r="H80" s="21"/>
+      <c r="H80" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I80" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J80" s="43"/>
     </row>
     <row r="81" spans="1:10" ht="18" customHeight="1">
-      <c r="A81" s="116" t="s">
+      <c r="A81" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="B81" s="116" t="s">
+      <c r="B81" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C81" s="44" t="s">
@@ -10718,15 +10811,17 @@
       <c r="G81" s="66">
         <v>0</v>
       </c>
-      <c r="H81" s="21"/>
+      <c r="H81" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I81" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J81" s="43"/>
     </row>
     <row r="82" spans="1:10" ht="18" customHeight="1">
-      <c r="A82" s="117"/>
-      <c r="B82" s="117"/>
+      <c r="A82" s="118"/>
+      <c r="B82" s="118"/>
       <c r="C82" s="44" t="s">
         <v>55</v>
       </c>
@@ -10742,22 +10837,22 @@
       <c r="G82" s="63">
         <v>52294.09</v>
       </c>
-      <c r="H82" s="21">
-        <v>52320.07</v>
-      </c>
-      <c r="I82" s="22">
+      <c r="H82" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>0.99876758574673152</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J82" s="43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1">
-      <c r="A83" s="116" t="s">
+      <c r="A83" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="B83" s="116" t="s">
+      <c r="B83" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C83" s="44" t="s">
@@ -10775,20 +10870,20 @@
       <c r="G83" s="63">
         <v>41490.370000000003</v>
       </c>
-      <c r="H83" s="21">
-        <v>41332.19</v>
-      </c>
-      <c r="I83" s="22">
+      <c r="H83" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>1.0037372807973641</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J83" s="43" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="18" customHeight="1">
-      <c r="A84" s="117"/>
-      <c r="B84" s="117"/>
+      <c r="A84" s="118"/>
+      <c r="B84" s="118"/>
       <c r="C84" s="44" t="s">
         <v>55</v>
       </c>
@@ -10804,20 +10899,20 @@
       <c r="G84" s="66">
         <v>41490.370000000003</v>
       </c>
-      <c r="H84" s="21">
-        <v>41332.19</v>
-      </c>
-      <c r="I84" s="22">
+      <c r="H84" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="22" t="e">
         <f>E84/H84</f>
-        <v>1.0037372807973641</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J84" s="43"/>
     </row>
     <row r="85" spans="1:10" ht="18" customHeight="1">
-      <c r="A85" s="116" t="s">
+      <c r="A85" s="117" t="s">
         <v>210</v>
       </c>
-      <c r="B85" s="116" t="s">
+      <c r="B85" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C85" s="44" t="s">
@@ -10835,20 +10930,20 @@
       <c r="G85" s="63">
         <v>43911.62</v>
       </c>
-      <c r="H85" s="21">
-        <v>44345.7</v>
-      </c>
-      <c r="I85" s="22">
+      <c r="H85" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>0.99037719553417813</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J85" s="43" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="18" customHeight="1">
-      <c r="A86" s="117"/>
-      <c r="B86" s="117"/>
+      <c r="A86" s="118"/>
+      <c r="B86" s="118"/>
       <c r="C86" s="44" t="s">
         <v>55</v>
       </c>
@@ -10864,17 +10959,19 @@
       <c r="G86" s="66">
         <v>0</v>
       </c>
-      <c r="H86" s="21"/>
+      <c r="H86" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I86" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J86" s="43"/>
     </row>
     <row r="87" spans="1:10" ht="18" customHeight="1">
-      <c r="A87" s="116" t="s">
+      <c r="A87" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="B87" s="116" t="s">
+      <c r="B87" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C87" s="44" t="s">
@@ -10892,15 +10989,17 @@
       <c r="G87" s="66">
         <v>0</v>
       </c>
-      <c r="H87" s="21"/>
+      <c r="H87" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I87" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J87" s="43"/>
     </row>
     <row r="88" spans="1:10" ht="18" customHeight="1">
-      <c r="A88" s="117"/>
-      <c r="B88" s="117"/>
+      <c r="A88" s="118"/>
+      <c r="B88" s="118"/>
       <c r="C88" s="44" t="s">
         <v>55</v>
       </c>
@@ -10916,22 +11015,22 @@
       <c r="G88" s="63">
         <v>45154.68</v>
       </c>
-      <c r="H88" s="21">
-        <v>45195.13</v>
-      </c>
-      <c r="I88" s="22">
+      <c r="H88" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>1.0006206420913051</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J88" s="43" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="18" customHeight="1">
-      <c r="A89" s="116" t="s">
+      <c r="A89" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="B89" s="116" t="s">
+      <c r="B89" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C89" s="44" t="s">
@@ -10949,20 +11048,20 @@
       <c r="G89" s="63">
         <v>30986.79</v>
       </c>
-      <c r="H89" s="21">
-        <v>30902.84</v>
-      </c>
-      <c r="I89" s="22">
+      <c r="H89" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>1.0026945743498008</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J89" s="43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="18" customHeight="1">
-      <c r="A90" s="117"/>
-      <c r="B90" s="117"/>
+      <c r="A90" s="118"/>
+      <c r="B90" s="118"/>
       <c r="C90" s="44" t="s">
         <v>55</v>
       </c>
@@ -10978,20 +11077,20 @@
       <c r="G90" s="66">
         <v>30986.79</v>
       </c>
-      <c r="H90" s="21">
-        <v>30902.84</v>
-      </c>
-      <c r="I90" s="22">
+      <c r="H90" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="22" t="e">
         <f>E90/H90</f>
-        <v>1.0026945743498008</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J90" s="43"/>
     </row>
     <row r="91" spans="1:10" ht="18" customHeight="1">
-      <c r="A91" s="116" t="s">
+      <c r="A91" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="B91" s="116" t="s">
+      <c r="B91" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C91" s="44" t="s">
@@ -11009,20 +11108,20 @@
       <c r="G91" s="63">
         <v>27070.77</v>
       </c>
-      <c r="H91" s="21">
-        <v>25190.14</v>
-      </c>
-      <c r="I91" s="22">
+      <c r="H91" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>1.0820309057432789</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J91" s="43" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="18" customHeight="1">
-      <c r="A92" s="117"/>
-      <c r="B92" s="117"/>
+      <c r="A92" s="118"/>
+      <c r="B92" s="118"/>
       <c r="C92" s="44" t="s">
         <v>55</v>
       </c>
@@ -11038,17 +11137,19 @@
       <c r="G92" s="66">
         <v>0</v>
       </c>
-      <c r="H92" s="21"/>
+      <c r="H92" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I92" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J92" s="43"/>
     </row>
     <row r="93" spans="1:10" ht="18" customHeight="1">
-      <c r="A93" s="116" t="s">
+      <c r="A93" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="B93" s="116" t="s">
+      <c r="B93" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C93" s="44" t="s">
@@ -11066,15 +11167,17 @@
       <c r="G93" s="66">
         <v>0</v>
       </c>
-      <c r="H93" s="21"/>
+      <c r="H93" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I93" s="22" t="s">
         <v>155</v>
       </c>
       <c r="J93" s="43"/>
     </row>
     <row r="94" spans="1:10" ht="18" customHeight="1">
-      <c r="A94" s="117"/>
-      <c r="B94" s="117"/>
+      <c r="A94" s="118"/>
+      <c r="B94" s="118"/>
       <c r="C94" s="44" t="s">
         <v>55</v>
       </c>
@@ -11090,22 +11193,22 @@
       <c r="G94" s="63">
         <v>31176.48</v>
       </c>
-      <c r="H94" s="21">
-        <v>31097.69</v>
-      </c>
-      <c r="I94" s="22">
+      <c r="H94" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>1.0024310487370607</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J94" s="43" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="18" customHeight="1">
-      <c r="A95" s="116" t="s">
+      <c r="A95" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="B95" s="116" t="s">
+      <c r="B95" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C95" s="44" t="s">
@@ -11123,20 +11226,20 @@
       <c r="G95" s="63">
         <v>15599.21</v>
       </c>
-      <c r="H95" s="21">
-        <v>15543.03</v>
-      </c>
-      <c r="I95" s="22">
+      <c r="H95" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="22" t="e">
         <f t="shared" si="1"/>
-        <v>1.0034105319233122</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J95" s="43" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="18" customHeight="1">
-      <c r="A96" s="117"/>
-      <c r="B96" s="117"/>
+      <c r="A96" s="118"/>
+      <c r="B96" s="118"/>
       <c r="C96" s="44" t="s">
         <v>55</v>
       </c>
@@ -11152,20 +11255,20 @@
       <c r="G96" s="66">
         <v>15599.21</v>
       </c>
-      <c r="H96" s="21">
-        <v>15543.03</v>
-      </c>
-      <c r="I96" s="22">
+      <c r="H96" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="22" t="e">
         <f>E96/H96</f>
-        <v>1.0034105319233122</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J96" s="43"/>
     </row>
     <row r="97" spans="1:10" ht="18" customHeight="1">
-      <c r="A97" s="116" t="s">
+      <c r="A97" s="117" t="s">
         <v>216</v>
       </c>
-      <c r="B97" s="116" t="s">
+      <c r="B97" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C97" s="44" t="s">
@@ -11183,15 +11286,17 @@
       <c r="G97" s="63">
         <v>57907.39</v>
       </c>
-      <c r="H97" s="21"/>
+      <c r="H97" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I97" s="84"/>
       <c r="J97" s="43" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="18" customHeight="1">
-      <c r="A98" s="117"/>
-      <c r="B98" s="117"/>
+      <c r="A98" s="118"/>
+      <c r="B98" s="118"/>
       <c r="C98" s="44" t="s">
         <v>55</v>
       </c>
@@ -11207,15 +11312,17 @@
       <c r="G98" s="66">
         <v>0</v>
       </c>
-      <c r="H98" s="21"/>
+      <c r="H98" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I98" s="84"/>
       <c r="J98" s="43"/>
     </row>
     <row r="99" spans="1:10" ht="18" customHeight="1">
-      <c r="A99" s="116" t="s">
+      <c r="A99" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="B99" s="116" t="s">
+      <c r="B99" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C99" s="44" t="s">
@@ -11233,13 +11340,15 @@
       <c r="G99" s="66">
         <v>0</v>
       </c>
-      <c r="H99" s="21"/>
+      <c r="H99" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I99" s="84"/>
       <c r="J99" s="43"/>
     </row>
     <row r="100" spans="1:10" ht="18" customHeight="1">
-      <c r="A100" s="117"/>
-      <c r="B100" s="117"/>
+      <c r="A100" s="118"/>
+      <c r="B100" s="118"/>
       <c r="C100" s="44" t="s">
         <v>55</v>
       </c>
@@ -11255,17 +11364,19 @@
       <c r="G100" s="63">
         <v>55440.23</v>
       </c>
-      <c r="H100" s="21"/>
+      <c r="H100" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I100" s="84"/>
       <c r="J100" s="43" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="18" customHeight="1">
-      <c r="A101" s="116" t="s">
+      <c r="A101" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="B101" s="116" t="s">
+      <c r="B101" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C101" s="44" t="s">
@@ -11283,15 +11394,17 @@
       <c r="G101" s="63">
         <v>29946.21</v>
       </c>
-      <c r="H101" s="21"/>
+      <c r="H101" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I101" s="84"/>
       <c r="J101" s="43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="18" customHeight="1">
-      <c r="A102" s="117"/>
-      <c r="B102" s="117"/>
+      <c r="A102" s="118"/>
+      <c r="B102" s="118"/>
       <c r="C102" s="44" t="s">
         <v>55</v>
       </c>
@@ -11307,15 +11420,17 @@
       <c r="G102" s="66">
         <v>29946.21</v>
       </c>
-      <c r="H102" s="21"/>
+      <c r="H102" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I102" s="84"/>
       <c r="J102" s="43"/>
     </row>
     <row r="103" spans="1:10" ht="18" customHeight="1">
-      <c r="A103" s="116" t="s">
+      <c r="A103" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="B103" s="116" t="s">
+      <c r="B103" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C103" s="44" t="s">
@@ -11333,15 +11448,17 @@
       <c r="G103" s="63">
         <v>55234.42</v>
       </c>
-      <c r="H103" s="21"/>
+      <c r="H103" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I103" s="84"/>
       <c r="J103" s="43" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="18" customHeight="1">
-      <c r="A104" s="117"/>
-      <c r="B104" s="117"/>
+      <c r="A104" s="118"/>
+      <c r="B104" s="118"/>
       <c r="C104" s="44" t="s">
         <v>55</v>
       </c>
@@ -11357,15 +11474,17 @@
       <c r="G104" s="66">
         <v>0</v>
       </c>
-      <c r="H104" s="21"/>
+      <c r="H104" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I104" s="84"/>
       <c r="J104" s="43"/>
     </row>
     <row r="105" spans="1:10" ht="18" customHeight="1">
-      <c r="A105" s="116" t="s">
+      <c r="A105" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="B105" s="116" t="s">
+      <c r="B105" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C105" s="44" t="s">
@@ -11383,13 +11502,15 @@
       <c r="G105" s="66">
         <v>0</v>
       </c>
-      <c r="H105" s="21"/>
+      <c r="H105" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I105" s="84"/>
       <c r="J105" s="43"/>
     </row>
     <row r="106" spans="1:10" ht="18" customHeight="1">
-      <c r="A106" s="117"/>
-      <c r="B106" s="117"/>
+      <c r="A106" s="118"/>
+      <c r="B106" s="118"/>
       <c r="C106" s="44" t="s">
         <v>55</v>
       </c>
@@ -11405,17 +11526,19 @@
       <c r="G106" s="63">
         <v>56225.01</v>
       </c>
-      <c r="H106" s="21"/>
+      <c r="H106" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I106" s="84"/>
       <c r="J106" s="43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="18" customHeight="1">
-      <c r="A107" s="116" t="s">
+      <c r="A107" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="B107" s="116" t="s">
+      <c r="B107" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C107" s="44" t="s">
@@ -11433,15 +11556,17 @@
       <c r="G107" s="63">
         <v>29711.15</v>
       </c>
-      <c r="H107" s="44"/>
+      <c r="H107" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I107" s="84"/>
       <c r="J107" s="43" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="18" customHeight="1">
-      <c r="A108" s="117"/>
-      <c r="B108" s="117"/>
+      <c r="A108" s="118"/>
+      <c r="B108" s="118"/>
       <c r="C108" s="44" t="s">
         <v>55</v>
       </c>
@@ -11457,15 +11582,17 @@
       <c r="G108" s="66">
         <v>29711.15</v>
       </c>
-      <c r="H108" s="44"/>
+      <c r="H108" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I108" s="84"/>
       <c r="J108" s="43"/>
     </row>
     <row r="109" spans="1:10" ht="18" customHeight="1">
-      <c r="A109" s="116" t="s">
+      <c r="A109" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="B109" s="116" t="s">
+      <c r="B109" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C109" s="44" t="s">
@@ -11483,15 +11610,17 @@
       <c r="G109" s="63">
         <v>51163.86</v>
       </c>
-      <c r="H109" s="21"/>
+      <c r="H109" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I109" s="84"/>
       <c r="J109" s="43" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="18" customHeight="1">
-      <c r="A110" s="117"/>
-      <c r="B110" s="117"/>
+      <c r="A110" s="118"/>
+      <c r="B110" s="118"/>
       <c r="C110" s="44" t="s">
         <v>55</v>
       </c>
@@ -11507,15 +11636,17 @@
       <c r="G110" s="66">
         <v>0</v>
       </c>
-      <c r="H110" s="21"/>
+      <c r="H110" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I110" s="84"/>
       <c r="J110" s="43"/>
     </row>
     <row r="111" spans="1:10" ht="18" customHeight="1">
-      <c r="A111" s="116" t="s">
+      <c r="A111" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="B111" s="116" t="s">
+      <c r="B111" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C111" s="44" t="s">
@@ -11533,13 +11664,15 @@
       <c r="G111" s="66">
         <v>0</v>
       </c>
-      <c r="H111" s="21"/>
+      <c r="H111" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I111" s="84"/>
       <c r="J111" s="43"/>
     </row>
     <row r="112" spans="1:10" ht="18" customHeight="1">
-      <c r="A112" s="117"/>
-      <c r="B112" s="117"/>
+      <c r="A112" s="118"/>
+      <c r="B112" s="118"/>
       <c r="C112" s="44" t="s">
         <v>55</v>
       </c>
@@ -11555,17 +11688,19 @@
       <c r="G112" s="63">
         <v>51770.62</v>
       </c>
-      <c r="H112" s="21"/>
+      <c r="H112" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I112" s="84"/>
       <c r="J112" s="43" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="18" customHeight="1">
-      <c r="A113" s="116" t="s">
+      <c r="A113" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="116" t="s">
+      <c r="B113" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C113" s="44" t="s">
@@ -11583,15 +11718,17 @@
       <c r="G113" s="63">
         <v>29672.93</v>
       </c>
-      <c r="H113" s="44"/>
+      <c r="H113" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I113" s="84"/>
       <c r="J113" s="43" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="18" customHeight="1">
-      <c r="A114" s="117"/>
-      <c r="B114" s="117"/>
+      <c r="A114" s="118"/>
+      <c r="B114" s="118"/>
       <c r="C114" s="44" t="s">
         <v>55</v>
       </c>
@@ -11607,15 +11744,17 @@
       <c r="G114" s="66">
         <v>29672.93</v>
       </c>
-      <c r="H114" s="44"/>
+      <c r="H114" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I114" s="84"/>
       <c r="J114" s="43"/>
     </row>
     <row r="115" spans="1:10" ht="18" customHeight="1">
-      <c r="A115" s="116" t="s">
+      <c r="A115" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="116" t="s">
+      <c r="B115" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C115" s="44" t="s">
@@ -11633,15 +11772,17 @@
       <c r="G115" s="63">
         <v>42570.55</v>
       </c>
-      <c r="H115" s="21"/>
+      <c r="H115" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I115" s="84"/>
       <c r="J115" s="43" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="18" customHeight="1">
-      <c r="A116" s="117"/>
-      <c r="B116" s="117"/>
+      <c r="A116" s="118"/>
+      <c r="B116" s="118"/>
       <c r="C116" s="44" t="s">
         <v>55</v>
       </c>
@@ -11657,15 +11798,17 @@
       <c r="G116" s="66">
         <v>0</v>
       </c>
-      <c r="H116" s="21"/>
+      <c r="H116" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I116" s="84"/>
       <c r="J116" s="43"/>
     </row>
     <row r="117" spans="1:10" ht="18" customHeight="1">
-      <c r="A117" s="116" t="s">
+      <c r="A117" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="B117" s="116" t="s">
+      <c r="B117" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C117" s="44" t="s">
@@ -11683,13 +11826,15 @@
       <c r="G117" s="66">
         <v>0</v>
       </c>
-      <c r="H117" s="21"/>
+      <c r="H117" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I117" s="84"/>
       <c r="J117" s="43"/>
     </row>
     <row r="118" spans="1:10" ht="18" customHeight="1">
-      <c r="A118" s="117"/>
-      <c r="B118" s="117"/>
+      <c r="A118" s="118"/>
+      <c r="B118" s="118"/>
       <c r="C118" s="44" t="s">
         <v>55</v>
       </c>
@@ -11705,17 +11850,19 @@
       <c r="G118" s="63">
         <v>44775.74</v>
       </c>
-      <c r="H118" s="21"/>
+      <c r="H118" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I118" s="84"/>
       <c r="J118" s="43" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="18" customHeight="1">
-      <c r="A119" s="116" t="s">
+      <c r="A119" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="B119" s="116" t="s">
+      <c r="B119" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C119" s="44" t="s">
@@ -11733,15 +11880,17 @@
       <c r="G119" s="63">
         <v>30599.119999999999</v>
       </c>
-      <c r="H119" s="44"/>
+      <c r="H119" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I119" s="84"/>
       <c r="J119" s="43" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="18" customHeight="1">
-      <c r="A120" s="117"/>
-      <c r="B120" s="117"/>
+      <c r="A120" s="118"/>
+      <c r="B120" s="118"/>
       <c r="C120" s="44" t="s">
         <v>55</v>
       </c>
@@ -11757,15 +11906,17 @@
       <c r="G120" s="66">
         <v>30599.119999999999</v>
       </c>
-      <c r="H120" s="44"/>
+      <c r="H120" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I120" s="84"/>
       <c r="J120" s="43"/>
     </row>
     <row r="121" spans="1:10" ht="18" customHeight="1">
-      <c r="A121" s="116" t="s">
+      <c r="A121" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="B121" s="116" t="s">
+      <c r="B121" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C121" s="44" t="s">
@@ -11783,15 +11934,17 @@
       <c r="G121" s="63">
         <v>22649.41</v>
       </c>
-      <c r="H121" s="21"/>
+      <c r="H121" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I121" s="84"/>
       <c r="J121" s="43" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="18" customHeight="1">
-      <c r="A122" s="117"/>
-      <c r="B122" s="117"/>
+      <c r="A122" s="118"/>
+      <c r="B122" s="118"/>
       <c r="C122" s="44" t="s">
         <v>55</v>
       </c>
@@ -11807,15 +11960,17 @@
       <c r="G122" s="66">
         <v>0</v>
       </c>
-      <c r="H122" s="21"/>
+      <c r="H122" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I122" s="84"/>
       <c r="J122" s="43"/>
     </row>
     <row r="123" spans="1:10" ht="18" customHeight="1">
-      <c r="A123" s="116" t="s">
+      <c r="A123" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="B123" s="116" t="s">
+      <c r="B123" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C123" s="44" t="s">
@@ -11833,13 +11988,15 @@
       <c r="G123" s="66">
         <v>0</v>
       </c>
-      <c r="H123" s="21"/>
+      <c r="H123" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I123" s="84"/>
       <c r="J123" s="43"/>
     </row>
     <row r="124" spans="1:10" ht="18" customHeight="1">
-      <c r="A124" s="117"/>
-      <c r="B124" s="117"/>
+      <c r="A124" s="118"/>
+      <c r="B124" s="118"/>
       <c r="C124" s="44" t="s">
         <v>55</v>
       </c>
@@ -11855,17 +12012,19 @@
       <c r="G124" s="63">
         <v>31172.37</v>
       </c>
-      <c r="H124" s="21"/>
+      <c r="H124" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I124" s="84"/>
       <c r="J124" s="43" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="18" customHeight="1">
-      <c r="A125" s="116" t="s">
+      <c r="A125" s="117" t="s">
         <v>230</v>
       </c>
-      <c r="B125" s="116" t="s">
+      <c r="B125" s="117" t="s">
         <v>53</v>
       </c>
       <c r="C125" s="44" t="s">
@@ -11883,15 +12042,17 @@
       <c r="G125" s="63">
         <v>15596.18</v>
       </c>
-      <c r="H125" s="44"/>
+      <c r="H125" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I125" s="84"/>
       <c r="J125" s="43" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="18" customHeight="1">
-      <c r="A126" s="117"/>
-      <c r="B126" s="117"/>
+      <c r="A126" s="118"/>
+      <c r="B126" s="118"/>
       <c r="C126" s="44" t="s">
         <v>55</v>
       </c>
@@ -11907,26 +12068,128 @@
       <c r="G126" s="66">
         <v>15596.18</v>
       </c>
-      <c r="H126" s="44"/>
+      <c r="H126" s="122" t="s">
+        <v>7</v>
+      </c>
       <c r="I126" s="84"/>
       <c r="J126" s="43"/>
     </row>
     <row r="127" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A127" s="118" t="s">
+      <c r="A127" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="B127" s="118"/>
-      <c r="C127" s="118"/>
-      <c r="D127" s="118"/>
-      <c r="E127" s="118"/>
-      <c r="F127" s="118"/>
-      <c r="G127" s="118"/>
-      <c r="H127" s="118"/>
-      <c r="I127" s="118"/>
-      <c r="J127" s="118"/>
+      <c r="B127" s="116"/>
+      <c r="C127" s="116"/>
+      <c r="D127" s="116"/>
+      <c r="E127" s="116"/>
+      <c r="F127" s="116"/>
+      <c r="G127" s="116"/>
+      <c r="H127" s="116"/>
+      <c r="I127" s="116"/>
+      <c r="J127" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A127:J127"/>
     <mergeCell ref="A63:I63"/>
     <mergeCell ref="A65:J65"/>
@@ -11951,106 +12214,6 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12058,18 +12221,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comment xmlns="94900fe1-762e-49b1-ae5a-c4f366a912de" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="94900fe1-762e-49b1-ae5a-c4f366a912de">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a7bc6c04-a6f3-4b85-abcc-278c78dc556b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100844179F21C463F4D8566C4691A1056B7" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6a0b07489b1cabbf607aa9d6543f70f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="94900fe1-762e-49b1-ae5a-c4f366a912de" xmlns:ns3="47ca1460-c52c-4cde-b99b-9b2c5f8ae333" xmlns:ns4="a7bc6c04-a6f3-4b85-abcc-278c78dc556b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbb6dfe84c8266d09dd54bf29c8a30be" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="94900fe1-762e-49b1-ae5a-c4f366a912de"/>
@@ -12319,6 +12470,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comment xmlns="94900fe1-762e-49b1-ae5a-c4f366a912de" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="94900fe1-762e-49b1-ae5a-c4f366a912de">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a7bc6c04-a6f3-4b85-abcc-278c78dc556b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12329,17 +12492,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5050860-16C2-4FD1-ABC8-EFDCCE42C5FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="94900fe1-762e-49b1-ae5a-c4f366a912de"/>
-    <ds:schemaRef ds:uri="a7bc6c04-a6f3-4b85-abcc-278c78dc556b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{409C179B-829B-4804-B7FD-30BD351CF4FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12359,6 +12511,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5050860-16C2-4FD1-ABC8-EFDCCE42C5FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94900fe1-762e-49b1-ae5a-c4f366a912de"/>
+    <ds:schemaRef ds:uri="a7bc6c04-a6f3-4b85-abcc-278c78dc556b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5B066D-A604-44B4-AB7B-2FBEA697F397}">
   <ds:schemaRefs>
